--- a/target/test-classes/TestData/DataExcel.xlsx
+++ b/target/test-classes/TestData/DataExcel.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshi\eclipse-workspace\Game_of_Cucumber_Team04\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9214B7AC-0BD2-42AF-99C9-9BDD39C5BFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1132E07B-DBB8-4AA8-89B5-49C5963D1833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="852" activeTab="1" xr2:uid="{73EA3766-16BF-4183-83E6-A22A49A2E0C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="852" activeTab="2" xr2:uid="{73EA3766-16BF-4183-83E6-A22A49A2E0C6}"/>
   </bookViews>
   <sheets>
     <sheet name="batchDetailsForm" sheetId="2" r:id="rId1"/>
     <sheet name="programDetails" sheetId="3" r:id="rId2"/>
+    <sheet name="attendanceDetailsForm" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>KeyOption</t>
   </si>
@@ -140,13 +141,94 @@
   </si>
   <si>
     <t>SQL JAVA</t>
+  </si>
+  <si>
+    <t>PgmName</t>
+  </si>
+  <si>
+    <t>ClassName</t>
+  </si>
+  <si>
+    <t>StudName</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>AttendanceDate</t>
+  </si>
+  <si>
+    <t>AddAttendance_valid</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>SDET11</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>AddAtt_missingPgmName</t>
+  </si>
+  <si>
+    <t>SDET02</t>
+  </si>
+  <si>
+    <t>Meera</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>AddAtt_missingClassName</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>AddAtt_missingStudName</t>
+  </si>
+  <si>
+    <t>SDET03</t>
+  </si>
+  <si>
+    <t>AddAtt_missingAttendnc</t>
+  </si>
+  <si>
+    <t>BigData</t>
+  </si>
+  <si>
+    <t>BD04</t>
+  </si>
+  <si>
+    <t>Raveena</t>
+  </si>
+  <si>
+    <t>AddAtt_missingAttDate</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Sunita</t>
+  </si>
+  <si>
+    <t>AddAtt_futureDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +242,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,7 +257,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -177,14 +265,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F52C790-CDC5-40CE-89CF-3369A97FACF1}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,4 +841,158 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47488D8-6638-48A6-B62B-A756545DB7DC}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="3">
+        <v>46912</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/test-classes/TestData/DataExcel.xlsx
+++ b/target/test-classes/TestData/DataExcel.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshi\eclipse-workspace\Game_of_Cucumber_Team04\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1132E07B-DBB8-4AA8-89B5-49C5963D1833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1234A21A-6A83-4B1E-AC41-1288159C852E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="852" activeTab="2" xr2:uid="{73EA3766-16BF-4183-83E6-A22A49A2E0C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="852" xr2:uid="{73EA3766-16BF-4183-83E6-A22A49A2E0C6}"/>
   </bookViews>
   <sheets>
     <sheet name="batchDetailsForm" sheetId="2" r:id="rId1"/>
     <sheet name="programDetails" sheetId="3" r:id="rId2"/>
     <sheet name="attendanceDetailsForm" sheetId="4" r:id="rId3"/>
+    <sheet name="Assignmentdetails" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="107">
   <si>
     <t>KeyOption</t>
   </si>
@@ -222,6 +223,141 @@
   </si>
   <si>
     <t>AddAtt_futureDate</t>
+  </si>
+  <si>
+    <t>Program Name</t>
+  </si>
+  <si>
+    <t>Batch Number</t>
+  </si>
+  <si>
+    <t>Assignment Name</t>
+  </si>
+  <si>
+    <t>Assignment Description</t>
+  </si>
+  <si>
+    <t>Grade By</t>
+  </si>
+  <si>
+    <t>Assignment Due Date</t>
+  </si>
+  <si>
+    <t>Assignment File 1</t>
+  </si>
+  <si>
+    <t>Assignment File 2</t>
+  </si>
+  <si>
+    <t>Assignment File 3</t>
+  </si>
+  <si>
+    <t>valid mandatory fields</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>########</t>
+  </si>
+  <si>
+    <t>invalid mandatory fields</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>bala</t>
+  </si>
+  <si>
+    <t>valid all fields</t>
+  </si>
+  <si>
+    <t>SELENIUM- cucumber concept</t>
+  </si>
+  <si>
+    <t>user/eclipse/workspace1/selenium</t>
+  </si>
+  <si>
+    <t>Invalid all fields</t>
+  </si>
+  <si>
+    <t>SDTT</t>
+  </si>
+  <si>
+    <t>###</t>
+  </si>
+  <si>
+    <t>$$$</t>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+  </si>
+  <si>
+    <t>((</t>
+  </si>
+  <si>
+    <t>$$</t>
+  </si>
+  <si>
+    <t>&amp;*^</t>
+  </si>
+  <si>
+    <t>%&amp;%$</t>
+  </si>
+  <si>
+    <t>Program Name missing</t>
+  </si>
+  <si>
+    <t>Batch number missing</t>
+  </si>
+  <si>
+    <t>Assignment name missing</t>
+  </si>
+  <si>
+    <t>Assignment due date missing</t>
+  </si>
+  <si>
+    <t>Grade by missing</t>
+  </si>
+  <si>
+    <t>passed date</t>
+  </si>
+  <si>
+    <t>EditAttendance_valid</t>
+  </si>
+  <si>
+    <t>Raju</t>
+  </si>
+  <si>
+    <t>EditAtt_missingPgmName</t>
+  </si>
+  <si>
+    <t>EditAtt_missingClassName</t>
+  </si>
+  <si>
+    <t>EditAtt_missingStudName</t>
+  </si>
+  <si>
+    <t>SDET09</t>
+  </si>
+  <si>
+    <t>EditAtt_missingAttendnc</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>DA89</t>
+  </si>
+  <si>
+    <t>EditAtt_missingAttDate</t>
+  </si>
+  <si>
+    <t>SDET111</t>
+  </si>
+  <si>
+    <t>Ravi</t>
   </si>
 </sst>
 </file>
@@ -237,24 +373,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF0451A5"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -284,17 +428,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,105 +754,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D934DE-7C8E-4ABF-853C-4DAC70642562}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.109375" customWidth="1"/>
     <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -721,122 +872,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F52C790-CDC5-40CE-89CF-3369A97FACF1}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -845,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47488D8-6638-48A6-B62B-A756545DB7DC}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,138 +1029,774 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="3">
-        <v>44900</v>
+      <c r="F2" s="2">
+        <v>44901</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>44929</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>45023</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>45178</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="3">
+      <c r="E6" s="1"/>
+      <c r="F6" s="2">
         <v>45022</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2">
         <v>46912</v>
       </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2">
+        <v>47095</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0195FD-809B-43AC-BBD0-201CB098F14E}">
+  <dimension ref="A1:Z11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="29.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>18981</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>111</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>111</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>111</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>111</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>111</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/test-classes/TestData/DataExcel.xlsx
+++ b/target/test-classes/TestData/DataExcel.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshi\eclipse-workspace\Game_of_Cucumber_Team04\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1234A21A-6A83-4B1E-AC41-1288159C852E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C37AFC3-AAA2-4349-9A57-F7AA075ACC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="852" xr2:uid="{73EA3766-16BF-4183-83E6-A22A49A2E0C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="852" activeTab="4" xr2:uid="{73EA3766-16BF-4183-83E6-A22A49A2E0C6}"/>
   </bookViews>
   <sheets>
     <sheet name="batchDetailsForm" sheetId="2" r:id="rId1"/>
     <sheet name="programDetails" sheetId="3" r:id="rId2"/>
     <sheet name="attendanceDetailsForm" sheetId="4" r:id="rId3"/>
     <sheet name="Assignmentdetails" sheetId="5" r:id="rId4"/>
+    <sheet name="userDetailsForm" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="125">
   <si>
     <t>KeyOption</t>
   </si>
@@ -358,6 +359,60 @@
   </si>
   <si>
     <t>Ravi</t>
+  </si>
+  <si>
+    <t>fristName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>phoneNo</t>
+  </si>
+  <si>
+    <t>userRoleDropDwn</t>
+  </si>
+  <si>
+    <t>roleStatusDropDwn</t>
+  </si>
+  <si>
+    <t>visaStatusDropDwn</t>
+  </si>
+  <si>
+    <t>InvalidUserDetails</t>
+  </si>
+  <si>
+    <t>@$%&amp;#</t>
+  </si>
+  <si>
+    <t>ValidUserDetails</t>
+  </si>
+  <si>
+    <t>Numpy</t>
+  </si>
+  <si>
+    <t>Ninja</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>H4 EAD</t>
+  </si>
+  <si>
+    <t>MissingMandatoryInUserDetails</t>
+  </si>
+  <si>
+    <t>UpdateUserDetails</t>
+  </si>
+  <si>
+    <t>Texas</t>
   </si>
 </sst>
 </file>
@@ -756,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D934DE-7C8E-4ABF-853C-4DAC70642562}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1018,7 +1073,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1300,7 +1355,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1801,4 +1856,125 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB94849-2034-4746-B430-D0E83EFF30B1}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1234567890</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="3">
+        <v>987654321</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/test-classes/TestData/DataExcel.xlsx
+++ b/target/test-classes/TestData/DataExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshi\eclipse-workspace\Game_of_Cucumber_Team04\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C37AFC3-AAA2-4349-9A57-F7AA075ACC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E600E6C-1702-4CB0-971A-988105E0F896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="852" activeTab="4" xr2:uid="{73EA3766-16BF-4183-83E6-A22A49A2E0C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="852" activeTab="5" xr2:uid="{73EA3766-16BF-4183-83E6-A22A49A2E0C6}"/>
   </bookViews>
   <sheets>
     <sheet name="batchDetailsForm" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="attendanceDetailsForm" sheetId="4" r:id="rId3"/>
     <sheet name="Assignmentdetails" sheetId="5" r:id="rId4"/>
     <sheet name="userDetailsForm" sheetId="6" r:id="rId5"/>
+    <sheet name="ClassDetails" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="186">
   <si>
     <t>KeyOption</t>
   </si>
@@ -413,13 +414,196 @@
   </si>
   <si>
     <t>Texas</t>
+  </si>
+  <si>
+    <t>BatchID</t>
+  </si>
+  <si>
+    <t>NoofClasses</t>
+  </si>
+  <si>
+    <t>ClassDate</t>
+  </si>
+  <si>
+    <t>ClassTopic</t>
+  </si>
+  <si>
+    <t>StaffId</t>
+  </si>
+  <si>
+    <t>ClassDescription</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Recording</t>
+  </si>
+  <si>
+    <t>AllMandateFieldsValidData</t>
+  </si>
+  <si>
+    <t>U09</t>
+  </si>
+  <si>
+    <t>AllMandateFieldsInValidData</t>
+  </si>
+  <si>
+    <t>56yt</t>
+  </si>
+  <si>
+    <t>Y6</t>
+  </si>
+  <si>
+    <t>U#8</t>
+  </si>
+  <si>
+    <t>AllFieldsValidData</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>Java Advanced</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>c:\ClassNotes</t>
+  </si>
+  <si>
+    <t>c:\Recording</t>
+  </si>
+  <si>
+    <t>OptionalFieldsInvalidData</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Algebra</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Missing Batch Id</t>
+  </si>
+  <si>
+    <t>U98</t>
+  </si>
+  <si>
+    <t>MissingNoofClass</t>
+  </si>
+  <si>
+    <t>U08</t>
+  </si>
+  <si>
+    <t>MissingClassDate</t>
+  </si>
+  <si>
+    <t>U18</t>
+  </si>
+  <si>
+    <t>MissingStaffId</t>
+  </si>
+  <si>
+    <t>PastClassDate</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>UpdateAllMandateFieldsValidData</t>
+  </si>
+  <si>
+    <t>UpdateAllMandateFieldsInValidData</t>
+  </si>
+  <si>
+    <t>yt64</t>
+  </si>
+  <si>
+    <t>&amp;^</t>
+  </si>
+  <si>
+    <t>11/2022/09</t>
+  </si>
+  <si>
+    <t>^&amp;U</t>
+  </si>
+  <si>
+    <t>UpdateAllFieldsValidData</t>
+  </si>
+  <si>
+    <t>Python Basics</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>d:\ClassNotes</t>
+  </si>
+  <si>
+    <t>d:\Recording</t>
+  </si>
+  <si>
+    <t>UpdateClassInvalidAllFields</t>
+  </si>
+  <si>
+    <t>&amp;6%5</t>
+  </si>
+  <si>
+    <t>11/2024/09</t>
+  </si>
+  <si>
+    <t>Cypress</t>
+  </si>
+  <si>
+    <t>*&amp;u</t>
+  </si>
+  <si>
+    <t>&amp;%(Wnk</t>
+  </si>
+  <si>
+    <t>no path</t>
+  </si>
+  <si>
+    <t>UpdateClassNoBatchID</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>UpdateClassnoNoofClass</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>UpdateClassnoClassDate</t>
+  </si>
+  <si>
+    <t>UpdateClassnoStaffID</t>
+  </si>
+  <si>
+    <t>UpdateClasswithPastDate</t>
+  </si>
+  <si>
+    <t>U19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +625,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -456,7 +653,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -479,11 +676,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -495,6 +722,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1862,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB94849-2034-4746-B430-D0E83EFF30B1}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1977,4 +2219,772 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189618FC-395F-497B-B13C-B97C1E1A39E8}">
+  <dimension ref="A1:Z19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5678</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45116</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45147</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7869</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45176</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45270</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6758</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>45116</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6573</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4564</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45180</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2345</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>36069</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="3">
+        <v>8768</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45588</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="3">
+        <v>6573</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45292</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="7">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8">
+        <v>44782</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="7">
+        <v>8796</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="8">
+        <v>44960</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="7">
+        <v>8769</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="7">
+        <v>6424</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8">
+        <v>45163</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="7">
+        <v>6758</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="8">
+        <v>35128</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/test-classes/TestData/DataExcel.xlsx
+++ b/target/test-classes/TestData/DataExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshi\eclipse-workspace\Game_of_Cucumber_Team04\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E600E6C-1702-4CB0-971A-988105E0F896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AED7DEB-F6F9-47D5-ABC5-5D667CD1F76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="852" activeTab="5" xr2:uid="{73EA3766-16BF-4183-83E6-A22A49A2E0C6}"/>
   </bookViews>
@@ -603,7 +603,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,13 +626,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -653,7 +646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -676,41 +669,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -722,21 +685,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1169,7 +1127,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F52C790-CDC5-40CE-89CF-3369A97FACF1}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1597,7 +1557,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G11"/>
+      <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2226,7 +2186,7 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2236,553 +2196,298 @@
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>5678</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>45116</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>45147</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>7869</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>45176</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>143</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>144</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>145</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" t="s">
         <v>149</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" t="s">
         <v>150</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" t="s">
         <v>150</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="6" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
         <v>7</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>45270</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>6758</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
         <v>45116</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>6573</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="1"/>
+      <c r="F8" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>4564</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>45180</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    </row>
+    <row r="10" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>2345</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>7</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>36069</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" ht="54" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="11" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>8768</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>45588</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
         <v>156</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="54" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="F12" t="s">
         <v>165</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>6573</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>7</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>45292</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" t="s">
         <v>167</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" t="s">
         <v>168</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" t="s">
         <v>169</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" t="s">
         <v>170</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+    </row>
+    <row r="14" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>0</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>177</v>
       </c>
       <c r="K14" s="1"/>
@@ -2802,19 +2507,19 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>178</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>5</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>44782</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>179</v>
       </c>
       <c r="G15" s="1"/>
@@ -2838,19 +2543,19 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>8796</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>44960</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>181</v>
       </c>
       <c r="G16" s="1"/>
@@ -2874,19 +2579,19 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>8769</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>141</v>
       </c>
       <c r="G17" s="1"/>
@@ -2910,17 +2615,17 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>6424</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>4</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>45163</v>
       </c>
       <c r="E18" s="1"/>
@@ -2946,21 +2651,21 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>6758</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>3</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>35128</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>185</v>
       </c>
       <c r="G19" s="1"/>
